--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Analyzing Data with Pie Charts, Line Charts, and What-IF Analysis Tools/Enterprise Fund.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Analyzing Data with Pie Charts, Line Charts, and What-IF Analysis Tools/Enterprise Fund.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Spreadsheet Applications\Microsoft Excel-Comprehensive\Analyzing Data with Pie Charts, Line Charts, and What-IF Analysis Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Analyzing Data with Pie Charts^J Line Charts^J and What-If Analysis Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F7ED7B8641F88DCEDB1BD5F928FCFB673056F833" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68CCD96B-F214-458E-B2ED-3A40F45D4F3F}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_F7ED7B8641F88DCEDB1BD5F928FCFB673056F833" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C5296160-ACE6-422E-860D-FE3EDA7F1509}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enterprise Fund Expenditures" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,7 +80,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -188,6 +191,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -197,12 +203,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="2" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -267,25 +270,8 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Enterprise</a:t>
+              <a:t>Enterprise Fund Expenditures</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200" b="1" cap="none" spc="0" baseline="0">
-                <a:ln/>
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> Fund Expenditures</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="3200" b="1" cap="none" spc="0">
-              <a:ln/>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -321,7 +307,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
-      <c:rotY val="0"/>
+      <c:rotY val="250"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="0"/>
     </c:view3D>
@@ -365,6 +351,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="plastic">
+              <a:bevelT w="6502400" h="6502400"/>
+              <a:bevelB w="6502400" h="6502400"/>
+              <a:contourClr>
+                <a:srgbClr val="000000"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -378,7 +377,13 @@
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400" prstMaterial="plastic">
+                <a:bevelT w="6502400" h="6502400"/>
+                <a:bevelB w="6502400" h="6502400"/>
                 <a:contourClr>
                   <a:schemeClr val="lt1"/>
                 </a:contourClr>
@@ -386,7 +391,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C310-486B-A71F-A02729D5BB16}"/>
+                <c16:uniqueId val="{00000001-E8D7-4424-8BED-4FB09084A8A6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -403,7 +408,13 @@
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400" prstMaterial="plastic">
+                <a:bevelT w="6502400" h="6502400"/>
+                <a:bevelB w="6502400" h="6502400"/>
                 <a:contourClr>
                   <a:schemeClr val="lt1"/>
                 </a:contourClr>
@@ -411,7 +422,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C310-486B-A71F-A02729D5BB16}"/>
+                <c16:uniqueId val="{00000003-E8D7-4424-8BED-4FB09084A8A6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -427,8 +438,20 @@
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400" prstMaterial="plastic">
+                <a:bevelT w="6502400" h="6502400"/>
+                <a:bevelB w="6502400" h="6502400"/>
                 <a:contourClr>
                   <a:schemeClr val="lt1"/>
                 </a:contourClr>
@@ -436,7 +459,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C310-486B-A71F-A02729D5BB16}"/>
+                <c16:uniqueId val="{00000005-E8D7-4424-8BED-4FB09084A8A6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -453,7 +476,13 @@
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400" prstMaterial="plastic">
+                <a:bevelT w="6502400" h="6502400"/>
+                <a:bevelB w="6502400" h="6502400"/>
                 <a:contourClr>
                   <a:schemeClr val="lt1"/>
                 </a:contourClr>
@@ -461,7 +490,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C310-486B-A71F-A02729D5BB16}"/>
+                <c16:uniqueId val="{00000007-E8D7-4424-8BED-4FB09084A8A6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -478,7 +507,13 @@
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400" prstMaterial="plastic">
+                <a:bevelT w="6502400" h="6502400"/>
+                <a:bevelB w="6502400" h="6502400"/>
                 <a:contourClr>
                   <a:schemeClr val="lt1"/>
                 </a:contourClr>
@@ -486,24 +521,53 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-C310-486B-A71F-A02729D5BB16}"/>
+                <c16:uniqueId val="{00000009-E8D7-4424-8BED-4FB09084A8A6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="10"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="40000"/>
+                      <a:lumOff val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="46000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="130000" r="50000" b="-30000"/>
+                </a:path>
+                <a:tileRect/>
+              </a:gradFill>
               <a:ln w="25400">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400" prstMaterial="plastic">
+                <a:bevelT w="6502400" h="6502400"/>
+                <a:bevelB w="6502400" h="6502400"/>
                 <a:contourClr>
                   <a:schemeClr val="lt1"/>
                 </a:contourClr>
@@ -511,7 +575,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-C310-486B-A71F-A02729D5BB16}"/>
+                <c16:uniqueId val="{0000000B-E8D7-4424-8BED-4FB09084A8A6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -530,7 +594,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -545,11 +609,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -598,34 +663,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Enterprise Fund Expenditures'!$C$5:$C$10</c:f>
+              <c:f>'Enterprise Fund Expenditures'!$D$5:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17456056</c:v>
+                  <c:v>0.18121067000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7897526</c:v>
+                  <c:v>7.8975260000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17845287</c:v>
+                  <c:v>0.17845287000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13985695</c:v>
+                  <c:v>0.13985695000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32356236</c:v>
+                  <c:v>0.32356236000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10459199.999999993</c:v>
+                  <c:v>9.7941889999999823E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-C310-486B-A71F-A02729D5BB16}"/>
+              <c16:uniqueId val="{0000000C-E8D7-4424-8BED-4FB09084A8A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,6 +712,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -659,9 +755,31 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="46000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="130000" r="50000" b="-30000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -1246,10 +1364,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E98A9DF4-35F7-4DFD-B9FB-C53EE421BFBF}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3FC7AC89-2663-4C80-B972-E37F112BF881}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="69" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1261,13 +1379,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5827796"/>
+    <xdr:ext cx="8586304" cy="5853043"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FE806C-9824-4A5D-8392-03011E9A6369}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5A18C2-66C9-4C3D-8B2A-E216BBEA3E14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,41 +1676,39 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1609,28 +1725,28 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>17610810</v>
       </c>
-      <c r="C5" s="6">
-        <v>17456056</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="7">
+        <v>18121067</v>
+      </c>
+      <c r="D5" s="3">
         <f>C5/$C$11</f>
-        <v>0.17456056</v>
+        <v>0.18121067000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>6824865</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>7897526</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="3">
         <f t="shared" ref="D6:D10" si="0">C6/$C$11</f>
         <v>7.8975260000000005E-2</v>
       </c>
@@ -1639,13 +1755,13 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>18695222</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>17845287</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.17845287000000001</v>
       </c>
@@ -1654,13 +1770,13 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>12657765</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>13985695</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0.13985695000000001</v>
       </c>
@@ -1669,43 +1785,43 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>30457903</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>32356236</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.32356235999999999</v>
+        <v>0.32356236000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>10976843</v>
       </c>
-      <c r="C10" s="7">
-        <v>10459199.999999993</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="8">
+        <v>9794188.9999999814</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.10459199999999992</v>
+        <v>9.7941889999999823E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <f>SUM(B5:B10)</f>
         <v>97223408</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <f>SUM(C5:C10)</f>
-        <v>100000000</v>
+        <v>99999999.999999985</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1717,6 +1833,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
